--- a/biology/Botanique/Ageratina_altissima/Ageratina_altissima.xlsx
+++ b/biology/Botanique/Ageratina_altissima/Ageratina_altissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ageratina altissima, l'Agératine élevée, ou Eupatoire rugueuse, est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae, originaire d'Amérique du Nord.
-Cette plante herbacée est toxique du fait de sa teneur en dérivés benzodihydrofuraniques (trémétone (en) et dihydroxytrémétone). Elle intoxique notamment les chevaux et les chèvres[2]. Chez les animaux, les symptômes de l'intoxication sont une apathie, généralement suivie par une perte de poids significative et un tremblement prononcé des jambes et du museau.
-Les substances toxiques peuvent se transmettre, par l'intermédiaire du lait produit par des vaches ayant brouté cette plante, à l'Homme et aux animaux de compagnie (chiens et chats) et provoquent la maladie du lait (en)[3].
+Cette plante herbacée est toxique du fait de sa teneur en dérivés benzodihydrofuraniques (trémétone (en) et dihydroxytrémétone). Elle intoxique notamment les chevaux et les chèvres. Chez les animaux, les symptômes de l'intoxication sont une apathie, généralement suivie par une perte de poids significative et un tremblement prononcé des jambes et du museau.
+Les substances toxiques peuvent se transmettre, par l'intermédiaire du lait produit par des vaches ayant brouté cette plante, à l'Homme et aux animaux de compagnie (chiens et chats) et provoquent la maladie du lait (en).
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (5 janvier 2018)[4]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 janvier 2018)
 Ageratina ageratoides (L. fil.) Spach
 Ageratum altissimum L.
 Batschia nivea Moench
@@ -537,8 +554,43 @@
 Kyrstenia aboriginum (E. Greene) E. Greene
 Kyrstenia altissima (L.) E. Greene
 Kyrstenia borealis (E. Greene) E. Greene
-Liste des variétés
-Selon Tropicos                                           (5 janvier 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ageratina_altissima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ageratina_altissima</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Ageratina altissima var. altissima
 Ageratina altissima var. angustata (A. Gray) Clewell &amp; Wooten
 Ageratina altissima var. roanensis (Small) Clewell &amp; Wooten</t>
